--- a/GluCEST-FC_Covariation.xlsx
+++ b/GluCEST-FC_Covariation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pecsok/projects/GluCEST-fMRI/glucest-rsfmri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F051407-21EA-874E-84A6-62F3A5542F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DBD4F5-AE79-F04B-8D2D-CCF59E378E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="-20620" windowWidth="26960" windowHeight="17580" xr2:uid="{3AEC99DD-50C0-DD4F-9452-EEB3C9B41FFF}"/>
+    <workbookView xWindow="10100" yWindow="-23500" windowWidth="24020" windowHeight="21620" xr2:uid="{3AEC99DD-50C0-DD4F-9452-EEB3C9B41FFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4582,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2D09EF-8C14-CC40-97BE-F7163F8ECE09}">
   <dimension ref="A1:AV169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA99" sqref="AA99"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
